--- a/data/birthday_5.xlsx
+++ b/data/birthday_5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21810" windowHeight="11070"/>
   </bookViews>
   <sheets>
     <sheet name="비전실" sheetId="11" r:id="rId1"/>
@@ -280,12 +280,6 @@
     <t>10월28일(양)</t>
   </si>
   <si>
-    <t>08월31일(양)</t>
-  </si>
-  <si>
-    <t>04월26일(양)</t>
-  </si>
-  <si>
     <t>12월19일(양)</t>
   </si>
   <si>
@@ -393,6 +387,14 @@
   </si>
   <si>
     <t>4월29일(양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월26일(양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월31일(양)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,7 +874,7 @@
   <dimension ref="B1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D57" sqref="B55:D57"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -899,13 +901,13 @@
     </row>
     <row r="3" spans="2:4" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,7 +1001,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1008,7 +1010,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1017,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1026,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1082,7 +1084,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1091,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1100,7 +1102,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1118,7 +1120,7 @@
         <v>27</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1145,7 +1147,7 @@
         <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1154,7 +1156,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,7 +1165,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1172,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1181,7 +1183,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1190,7 +1192,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1201,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1208,7 +1210,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,7 +1219,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1273,7 +1275,7 @@
         <v>52</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,7 +1286,7 @@
         <v>53</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1293,7 +1295,7 @@
         <v>54</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1302,7 +1304,7 @@
         <v>55</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,7 +1313,7 @@
         <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1322,7 @@
         <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1340,7 +1342,7 @@
         <v>41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1349,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,7 +1360,7 @@
         <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1369,7 +1371,7 @@
         <v>45</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1378,7 +1380,7 @@
         <v>46</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
